--- a/biology/Médecine/Dioscoride_de_Vienne/Dioscoride_de_Vienne.xlsx
+++ b/biology/Médecine/Dioscoride_de_Vienne/Dioscoride_de_Vienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Dioscoride de Vienne (Vienne, Österreichische Nationalbibliothek, Cod. Med. Gr. 1.) est l'un des plus anciens exemplaires conservés du De materia medica de Dioscoride, puisqu'il date du début du VIe siècle. Les 492 folios de vélin contiennent plus de 400 dessins d'animaux et de plantes, réalisés pour la plupart dans un style naturaliste. Le manuscrit a été réalisé aux environs de 512 pour la princesse byzantine Anicia Juliana, fille de l’empereur Olybrius. Le codex mesure 37 x 30 cm. Bien qu'il s’agisse initialement d’une copie de luxe, divers indices permettent de penser que, dans les siècles qui ont suivi, il a été utilisé quotidiennement dans un hôpital. On observe qu’il comporte des annotations en arabe. En plus du texte de Dioscoride, il a été ajouté au manuscrit le Carmen de herbis attribué à Rufus, une paraphrase d’un traité ornithologique d’un certain Dionysius, généralement identifié comme étant Denys de Philadelphie, et une paraphrase du traité de Nicandre de Colophon sur le traitement des morsures de serpents.
@@ -512,7 +524,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le manuscrit contient 383 illustrations de plantes en pleine page, sur un total de 435 illustrations originales. Les illustrations se répartissent en deux groupes. Celles qui suivent fidèlement les premiers modèles classiques et présentent une illustration tout à fait réaliste de chaque plante. Il existe aussi des illustrations plus abstraites. La majorité des illustrations ont été peintes dans un style naturaliste afin d'aider les pharmacologues à reconnaître chaque plante. Toutefois, on estime que ces illustrations sont des copies d'un herbier antérieur et n'ont pas été exécutées d’après nature à partir d’un modèle de plante.
 En plus des illustrations réparties dans le texte, le manuscrit contient plusieurs pages intercalaires sous forme d'une série de miniatures en pleine page. Une note spéciale en dédicace contient le portrait miniature de Julia Anicia sur le verso du folio 6. (Voir ici) Le manuscrit a été offert à Anicia en remerciement pour le financement de la construction d'une église dans la banlieue de Constantinople. Ce portrait est la plus ancienne dédicace existante, présentée sous forme de portrait. Il représente Anicia assise dans une pose cérémoniale de distribution d’aumônes. Elle est flanquée de figures personnifiant la magnanimité et la prudence. À ses pieds se tient à genoux une autre allégorie, représentant la reconnaissance de l'art. Un putto tend à Anicia un exemplaire de la dédicace. Anicia et ses préposés sont encadrés par une étoile à huit branches inscrite dans un cercle formé d’une corde torsadée. Dans le champ extérieur à l'étoile figurent des putti, un travail réalisé en grisaille, comme celui des maçons et des menuisiers. Cette miniature est une création tout à fait originale et, avec l'inclusion des personnages allégoriques et les putti, montre la persistance de la tradition classique à Constantinople, en dépit du fait qu’Anicia elle-même était une chrétienne pieuse.
